--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_season_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_season_LMB.xlsx
@@ -59,25 +59,25 @@
     <t xml:space="preserve">Fall</t>
   </si>
   <si>
+    <t xml:space="preserve">Exposed/Low SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod/Dense SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallow/Dense SAV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shallow/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shallow/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposed/Low SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mod/Dense SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.792053175288242</v>
+        <v>0.553905249348899</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0171652917006135</v>
+        <v>0.111052271093449</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-10.7571013028042</v>
+        <v>-2.94659414509081</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000000000000000000000000839495432018162</v>
+        <v>0.491580734002903</v>
       </c>
     </row>
     <row r="3">
@@ -490,25 +490,25 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.682745628354143</v>
+        <v>0.954522698111286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0639612853652458</v>
+        <v>0.237929032056573</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.07368625257392</v>
+        <v>-0.186724447281166</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00708004622721806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.09440145243348</v>
+        <v>1.00151198359728</v>
       </c>
       <c r="H4" t="n">
-        <v>0.461000567385577</v>
+        <v>0.118761555668545</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35861533330623</v>
+        <v>0.0127408744379135</v>
       </c>
       <c r="L4" t="n">
-        <v>0.119851058745165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -569,48 +569,38 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.553905249348899</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.111052271093449</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>-2.94659414509081</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.491580734002903</v>
-      </c>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -619,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92734131621917</v>
+        <v>0.39629815365883</v>
       </c>
       <c r="H6" t="n">
-        <v>1.15233084199429</v>
+        <v>0.151789449786353</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.72859270637646</v>
+        <v>-2.41656445452905</v>
       </c>
       <c r="L6" t="n">
-        <v>0.973159697860361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -645,22 +635,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.39629815365883</v>
+        <v>0.868529657232156</v>
       </c>
       <c r="H7" t="n">
-        <v>0.151789449786353</v>
+        <v>0.194072476990045</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.41656445452905</v>
+        <v>-0.630807299916191</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -683,22 +673,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.16009995874686</v>
+        <v>1.02281828097736</v>
       </c>
       <c r="H8" t="n">
-        <v>0.107504973901174</v>
+        <v>0.102660730515224</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.60254915299846</v>
+        <v>0.22478566024833</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -718,51 +708,41 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.71546199304785</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.308892087518132</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>-0.775532491524568</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -771,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42994343566753</v>
+        <v>1.16009995874686</v>
       </c>
       <c r="H10" t="n">
-        <v>0.287389198175314</v>
+        <v>0.107504973901174</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.77946027103915</v>
+        <v>1.60254915299846</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -794,25 +774,25 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.9986294863491</v>
+        <v>1.15389832428938</v>
       </c>
       <c r="H11" t="n">
-        <v>0.766024525503576</v>
+        <v>0.149582578547151</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.80669717927158</v>
+        <v>1.10424620907262</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -835,22 +815,22 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.954522698111286</v>
+        <v>1.16132599305626</v>
       </c>
       <c r="H12" t="n">
-        <v>0.237929032056573</v>
+        <v>0.104679062532345</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.186724447281166</v>
+        <v>1.65926935405081</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -873,22 +853,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.868529657232156</v>
+        <v>1.56652486901375</v>
       </c>
       <c r="H13" t="n">
-        <v>0.194072476990045</v>
+        <v>0.150993570953313</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.630807299916191</v>
+        <v>4.65682008167036</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.000491330198981826</v>
       </c>
     </row>
     <row r="14">
@@ -911,22 +891,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.15389832428938</v>
+        <v>0.792053175288242</v>
       </c>
       <c r="H14" t="n">
-        <v>0.149582578547151</v>
+        <v>0.0171652917006135</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1.10424620907262</v>
+        <v>-10.7571013028042</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.000000000000000000000000839495432018162</v>
       </c>
     </row>
     <row r="15">
@@ -949,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -984,25 +964,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.909909904657811</v>
+        <v>1.12359824851782</v>
       </c>
       <c r="H16" t="n">
-        <v>0.265957496064995</v>
+        <v>0.0254412679977403</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.323000154231244</v>
+        <v>5.1467534854435</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.0000405500866557851</v>
       </c>
     </row>
     <row r="17">
@@ -1022,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.20887468320302</v>
+        <v>1.13381610266004</v>
       </c>
       <c r="H17" t="n">
-        <v>0.276481800133027</v>
+        <v>0.0418577804545217</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.829390337335261</v>
+        <v>3.40187314114622</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.102396315142094</v>
       </c>
     </row>
     <row r="18">
@@ -1060,25 +1040,25 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.13074710217615</v>
+        <v>0.71546199304785</v>
       </c>
       <c r="H18" t="n">
-        <v>0.276519792222659</v>
+        <v>0.308892087518132</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.502476086853919</v>
+        <v>-0.775532491524568</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1098,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.32856525356501</v>
+        <v>0.909909904657811</v>
       </c>
       <c r="H19" t="n">
-        <v>0.266061386558681</v>
+        <v>0.265957496064995</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.41863825599299</v>
+        <v>-0.323000154231244</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1136,25 +1116,25 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.24270226798047</v>
+        <v>1.02127413124259</v>
       </c>
       <c r="H20" t="n">
-        <v>0.271124052874909</v>
+        <v>0.154074857514319</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.995944870090187</v>
+        <v>0.139535015874327</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1174,63 +1154,53 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.935371645951038</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.112533954650194</v>
-      </c>
-      <c r="I21" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>-0.55532962664232</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.12359824851782</v>
+        <v>2.09440145243348</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0254412679977403</v>
+        <v>0.461000567385577</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.1467534854435</v>
+        <v>3.35861533330623</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0000405500866557851</v>
+        <v>0.119851058745165</v>
       </c>
     </row>
     <row r="23">
@@ -1250,25 +1220,25 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.00151198359728</v>
+        <v>1.20887468320302</v>
       </c>
       <c r="H23" t="n">
-        <v>0.118761555668545</v>
+        <v>0.276481800133027</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0127408744379135</v>
+        <v>0.829390337335261</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1288,25 +1258,25 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.02281828097736</v>
+        <v>1.1595727380964</v>
       </c>
       <c r="H24" t="n">
-        <v>0.102660730515224</v>
+        <v>0.160768909527326</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.22478566024833</v>
+        <v>1.06784706707664</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1326,63 +1296,53 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.16132599305626</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.104679062532345</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
       <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>1.65926935405081</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
+      <c r="K25"/>
+      <c r="L25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.02127413124259</v>
+        <v>1.42994343566753</v>
       </c>
       <c r="H26" t="n">
-        <v>0.154074857514319</v>
+        <v>0.287389198175314</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.139535015874327</v>
+        <v>1.77946027103915</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1402,25 +1362,25 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.1595727380964</v>
+        <v>1.13074710217615</v>
       </c>
       <c r="H27" t="n">
-        <v>0.160768909527326</v>
+        <v>0.276519792222659</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1.06784706707664</v>
+        <v>0.502476086853919</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1440,16 +1400,16 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1478,63 +1438,53 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.13541771266207</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.132755709439562</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
       <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K29" t="n">
-        <v>1.0861961794157</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="K29"/>
+      <c r="L29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.09853164478461</v>
+        <v>2.92734131621917</v>
       </c>
       <c r="H30" t="n">
-        <v>0.109530463698398</v>
+        <v>1.15233084199429</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.942512889572572</v>
+        <v>2.72859270637646</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.973159697860361</v>
       </c>
     </row>
     <row r="31">
@@ -1554,25 +1504,25 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.967513217852681</v>
+        <v>1.32856525356501</v>
       </c>
       <c r="H31" t="n">
-        <v>0.086686141646245</v>
+        <v>0.266061386558681</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.368608833970359</v>
+        <v>1.41863825599299</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1592,25 +1542,25 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.56652486901375</v>
+        <v>1.13541771266207</v>
       </c>
       <c r="H32" t="n">
-        <v>0.150993570953313</v>
+        <v>0.132755709439562</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>4.65682008167036</v>
+        <v>1.0861961794157</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000491330198981826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1630,63 +1580,53 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.72377791446992</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0658201366630291</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
       <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
-        <v>-3.55478112955263</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0578789594483471</v>
-      </c>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.13381610266004</v>
+        <v>1.9986294863491</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0418577804545217</v>
+        <v>0.766024525503576</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.40187314114622</v>
+        <v>1.80669717927158</v>
       </c>
       <c r="L34" t="n">
-        <v>0.102396315142094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1706,72 +1646,92 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="G35" t="n">
+        <v>1.24270226798047</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.271124052874909</v>
+      </c>
+      <c r="I35" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="K35" t="n">
+        <v>0.995944870090187</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="G36" t="n">
+        <v>1.09853164478461</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.109530463698398</v>
+      </c>
+      <c r="I36" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="K36" t="n">
+        <v>0.942512889572572</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1790,112 +1750,152 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="G38" t="n">
+        <v>0.682745628354143</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0639612853652458</v>
+      </c>
+      <c r="I38" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="K38" t="n">
+        <v>-4.07368625257392</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.00708004622721806</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="G39" t="n">
+        <v>0.935371645951038</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.112533954650194</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="K39" t="n">
+        <v>-0.55532962664232</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="G40" t="n">
+        <v>0.967513217852681</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.086686141646245</v>
+      </c>
+      <c r="I40" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="K40" t="n">
+        <v>-0.368608833970359</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="G41" t="n">
+        <v>0.72377791446992</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0658201366630291</v>
+      </c>
+      <c r="I41" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="K41" t="n">
+        <v>-3.55478112955263</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0578789594483471</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_season_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_season_LMB.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\results\accel-glmm-results\habitat-season\lmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28074FFC-40E3-4F36-9B79-29379EB78087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4120D-65C5-4F5A-9095-D0C464B6B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -439,19 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -511,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.55390524934889895</v>
+        <v>0.49050723026367898</v>
       </c>
       <c r="H2">
-        <v>0.11105227109344901</v>
+        <v>9.9507170002486905E-2</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -523,48 +504,48 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>-2.9465941450908102</v>
+        <v>-3.5112624044740399</v>
       </c>
       <c r="L2">
-        <v>0.49158073400290297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+        <v>6.8235541884438797E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.39629815365882998</v>
-      </c>
-      <c r="H3">
-        <v>0.151789449786353</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>-2.4165644545290501</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.44892930334393699</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.4576778476399495E-2</v>
+      </c>
+      <c r="I3" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-4.2510832421291997</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3.2549078480417701E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -587,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.1600999587468599</v>
+        <v>1.0652482287315701</v>
       </c>
       <c r="H4">
-        <v>0.107504973901174</v>
+        <v>0.15719581261239399</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -599,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1.6025491529984599</v>
+        <v>0.428332344228193</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -625,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.79205317528824204</v>
+        <v>1.01157359825919</v>
       </c>
       <c r="H5">
-        <v>1.71652917006135E-2</v>
+        <v>6.8331925828004195E-2</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -637,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>-10.7571013028042</v>
+        <v>0.17034958863344499</v>
       </c>
       <c r="L5">
-        <v>8.3949543201816195E-25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -663,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.71546199304784996</v>
+        <v>0.91523483375078596</v>
       </c>
       <c r="H6">
-        <v>0.30889208751813202</v>
+        <v>0.248362607490137</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -675,162 +656,162 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>-0.77553249152456805</v>
+        <v>-0.326404034990464</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2.09440145243348</v>
-      </c>
-      <c r="H7">
-        <v>0.46100056738557699</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3.3586153333062301</v>
-      </c>
-      <c r="L7">
-        <v>0.119851058745165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.1717278829079198</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.459413350049096</v>
+      </c>
+      <c r="I7" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.6660344369328501</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.7690137366385601E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.42994343566753</v>
-      </c>
-      <c r="H8">
-        <v>0.287389198175314</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1.7794602710391501</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.06230109536898</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.41039252484601502</v>
+      </c>
+      <c r="I8" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.63734627139198</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.2145609210217601E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2.9273413162191702</v>
-      </c>
-      <c r="H9">
-        <v>1.1523308419942899</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2.7285927063764599</v>
-      </c>
-      <c r="L9">
-        <v>0.97315969786036105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.3728641030934301</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.54646236623622702</v>
+      </c>
+      <c r="I9" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.75210912805594</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.6829024144264298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1.9986294863491001</v>
-      </c>
-      <c r="H10">
-        <v>0.76602452550357603</v>
-      </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1.80669717927158</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.2533026708755401</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.42569870547349498</v>
+      </c>
+      <c r="I10" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.3001688569081304</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.6112206749616998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -853,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.68274562835414299</v>
+        <v>0.94961303006690601</v>
       </c>
       <c r="H11">
-        <v>6.3961285365245799E-2</v>
+        <v>0.13841170676197001</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -865,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>-4.0736862525739204</v>
+        <v>-0.354707509667194</v>
       </c>
       <c r="L11">
-        <v>7.0800462272180599E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -879,18 +860,33 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>0.77318579374858498</v>
+      </c>
+      <c r="H13">
+        <v>0.21887883126437699</v>
+      </c>
+      <c r="I13" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>-0.90868151271308695</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
     </row>
@@ -902,18 +898,33 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0.83614840393680601</v>
+      </c>
+      <c r="H14">
+        <v>0.143454208871407</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>-1.0430370768603701</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
     </row>
@@ -925,22 +936,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.5665248690137501</v>
+        <v>0.92138469265517098</v>
       </c>
       <c r="H15">
-        <v>0.15099357095331301</v>
+        <v>0.19581150281904</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -949,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>4.65682008167036</v>
+        <v>-0.385272585397613</v>
       </c>
       <c r="L15">
-        <v>4.9133019898182603E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -963,22 +974,22 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.13381610266004</v>
+        <v>0.86082657509497196</v>
       </c>
       <c r="H16">
-        <v>4.1857780454521702E-2</v>
+        <v>0.15876361673094</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -987,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>3.4018731411462202</v>
+        <v>-0.81256261402989705</v>
       </c>
       <c r="L16">
-        <v>0.102396315142094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1001,18 +1012,33 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17">
+        <v>1.0814327043995</v>
+      </c>
+      <c r="H17">
+        <v>0.28328064877812997</v>
+      </c>
+      <c r="I17" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.29886207014546201</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1050,33 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="G18">
+        <v>1.1916730753524101</v>
+      </c>
+      <c r="H18">
+        <v>0.19885267401048901</v>
+      </c>
+      <c r="I18" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1.0508771100790999</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
     </row>
@@ -1047,18 +1088,33 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
+      <c r="G19">
+        <v>1.1133502219712099</v>
+      </c>
+      <c r="H19">
+        <v>0.26128621945099001</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.45752324489129997</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
     </row>
@@ -1070,18 +1126,33 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
+      <c r="G20">
+        <v>1.10193918725079</v>
+      </c>
+      <c r="H20">
+        <v>0.23421643942225101</v>
+      </c>
+      <c r="I20" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.45670115161677799</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
@@ -1093,18 +1164,33 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
+      <c r="G21">
+        <v>1.0295141042450999</v>
+      </c>
+      <c r="H21">
+        <v>0.17347943854967099</v>
+      </c>
+      <c r="I21" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.172616552917223</v>
+      </c>
+      <c r="L21">
         <v>1</v>
       </c>
     </row>
@@ -1116,22 +1202,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.72377791446992001</v>
+        <v>0.93427488209545995</v>
       </c>
       <c r="H22">
-        <v>6.5820136663029105E-2</v>
+        <v>0.19776234388762401</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1140,85 +1226,389 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>-3.5547811295526301</v>
+        <v>-0.32117481065672698</v>
       </c>
       <c r="L22">
-        <v>5.7878959448347103E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0.95452269811128598</v>
-      </c>
-      <c r="H34">
-        <v>0.23792903205657301</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>-0.18672444728116599</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.67602700826665496</v>
+      </c>
+      <c r="H24">
+        <v>0.110056458996214</v>
+      </c>
+      <c r="I24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>-2.4049439552311598</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0.86852965723215603</v>
-      </c>
-      <c r="H35">
-        <v>0.19407247699004501</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>-0.630807299916191</v>
-      </c>
-      <c r="L35">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.81704889589754304</v>
+      </c>
+      <c r="H25">
+        <v>7.2146408630092404E-2</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>-2.28826231068247</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.97116823492536997</v>
+      </c>
+      <c r="H26">
+        <v>0.123419351386367</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>-0.23020763208300399</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1.1449779513502001</v>
+      </c>
+      <c r="H27">
+        <v>7.56783199941925E-2</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2.0483181373089501</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1.2086039254444401</v>
+      </c>
+      <c r="H28">
+        <v>0.210213579157918</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1.0893170980970599</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1.43658200493418</v>
+      </c>
+      <c r="H29">
+        <v>0.22485049172522101</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2.3145415242263798</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1.69368669794118</v>
+      </c>
+      <c r="H30">
+        <v>0.26646792389062302</v>
+      </c>
+      <c r="I30" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3.3490576753222299</v>
+      </c>
+      <c r="L30">
+        <v>0.12406297892107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1.18862927274202</v>
+      </c>
+      <c r="H31">
+        <v>0.163135067392261</v>
+      </c>
+      <c r="I31" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1.25905520325417</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.4013579323088401</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.124294988733209</v>
+      </c>
+      <c r="I32" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.8044705846202298</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2.17424929581321E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1.17896972962485</v>
+      </c>
+      <c r="H33">
+        <v>0.14725888707311699</v>
+      </c>
+      <c r="I33" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1.3181322782256</v>
+      </c>
+      <c r="L33">
         <v>1</v>
       </c>
     </row>
@@ -1230,33 +1620,18 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
-        <v>1.1538983242893801</v>
-      </c>
-      <c r="H36">
-        <v>0.14958257854715101</v>
-      </c>
-      <c r="I36" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1.1042462090726199</v>
-      </c>
-      <c r="L36">
         <v>1</v>
       </c>
     </row>
@@ -1268,33 +1643,18 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>1.0793237748507001</v>
-      </c>
-      <c r="H37">
-        <v>0.16824665156240501</v>
-      </c>
-      <c r="I37" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0.48969692572892598</v>
-      </c>
-      <c r="L37">
         <v>1</v>
       </c>
     </row>
@@ -1303,25 +1663,25 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.90990990465781096</v>
+        <v>1.24552997360982</v>
       </c>
       <c r="H38">
-        <v>0.26595749606499502</v>
+        <v>0.182556527693226</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1330,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>-0.32300015423124401</v>
+        <v>1.4980015266694</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -1341,25 +1701,25 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1.2088746832030199</v>
+        <v>1.2227103308565099</v>
       </c>
       <c r="H39">
-        <v>0.27648180013302698</v>
+        <v>8.8576311223003301E-2</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1368,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0.82939033733526102</v>
+        <v>2.7755766201418401</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0.84308987894915699</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1382,33 +1742,18 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>1.1307471021761499</v>
-      </c>
-      <c r="H40">
-        <v>0.27651979222265899</v>
-      </c>
-      <c r="I40" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0.50247608685391898</v>
-      </c>
-      <c r="L40">
         <v>1</v>
       </c>
     </row>
@@ -1417,36 +1762,21 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>1.3285652535650101</v>
-      </c>
-      <c r="H41">
-        <v>0.266061386558681</v>
-      </c>
-      <c r="I41" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1.41863825599299</v>
-      </c>
-      <c r="L41">
         <v>1</v>
       </c>
     </row>
@@ -1455,36 +1785,21 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>1.24270226798047</v>
-      </c>
-      <c r="H42">
-        <v>0.27112405287490898</v>
-      </c>
-      <c r="I42" t="e">
-        <v>#NUM!</v>
-      </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0.99594487009018695</v>
-      </c>
-      <c r="L42">
         <v>1</v>
       </c>
     </row>
@@ -1493,36 +1808,44 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0.93537164595103806</v>
-      </c>
-      <c r="H43">
-        <v>0.112533954650194</v>
-      </c>
-      <c r="I43" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>-0.55532962664232</v>
-      </c>
-      <c r="L43">
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>1</v>
       </c>
     </row>
@@ -1531,25 +1854,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1.0015119835972801</v>
+        <v>0.98167876868737702</v>
       </c>
       <c r="H45">
-        <v>0.118761555668545</v>
+        <v>0.139194633918551</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -1558,358 +1881,16 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1.27408744379135E-2</v>
+        <v>-0.13040993446093399</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>1.0228182809773601</v>
-      </c>
-      <c r="H46">
-        <v>0.10266073051522399</v>
-      </c>
-      <c r="I46" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0.22478566024832999</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>1.1613259930562601</v>
-      </c>
-      <c r="H47">
-        <v>0.104679062532345</v>
-      </c>
-      <c r="I47" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1.6592693540508101</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1.12359824851782</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2.54412679977403E-2</v>
-      </c>
-      <c r="I48" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <v>5.1467534854435</v>
-      </c>
-      <c r="L48" s="1">
-        <v>4.0550086655785103E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1.0212741312425899</v>
-      </c>
-      <c r="H49">
-        <v>0.15407485751431901</v>
-      </c>
-      <c r="I49" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0.13953501587432701</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>1.1595727380964</v>
-      </c>
-      <c r="H50">
-        <v>0.160768909527326</v>
-      </c>
-      <c r="I50" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1.06784706707664</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1.12190195116989</v>
-      </c>
-      <c r="H51">
-        <v>0.13229052346338599</v>
-      </c>
-      <c r="I51" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.97548361716595</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>1.1354177126620699</v>
-      </c>
-      <c r="H52">
-        <v>0.132755709439562</v>
-      </c>
-      <c r="I52" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1.0861961794157</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>1.0985316447846101</v>
-      </c>
-      <c r="H53">
-        <v>0.109530463698398</v>
-      </c>
-      <c r="I53" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0.94251288957257195</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0.96751321785268096</v>
-      </c>
-      <c r="H54">
-        <v>8.6686141646244996E-2</v>
-      </c>
-      <c r="I54" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>-0.36860883397035898</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L67">
-    <sortCondition ref="C2:C67"/>
-    <sortCondition ref="E2:E67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L45">
+    <sortCondition ref="C2:C45"/>
+    <sortCondition ref="E2:E45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_season_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_season_LMB.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.627433958637207</v>
+        <v>0.627433958602343</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0697424905167372</v>
+        <v>0.0697424905055744</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.19339119787546</v>
+        <v>-4.19339119881354</v>
       </c>
       <c r="L2" t="n">
         <v>0.004</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767873175690476</v>
+        <v>0.76787317560476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0961576189688975</v>
+        <v>0.0961576189566994</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.10923354763715</v>
+        <v>-2.10923354856069</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.876298485902336</v>
+        <v>0.876298485910526</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0574921183471181</v>
+        <v>0.0574921183469477</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.01269168038789</v>
+        <v>-2.01269168027021</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.416571024892887</v>
+        <v>0.416571024803953</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0715404104045065</v>
+        <v>0.0715404103555121</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-5.09908369150672</v>
+        <v>-5.09908369515335</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.852614457832649</v>
+        <v>0.852614457714183</v>
       </c>
       <c r="H7" t="n">
-        <v>0.104371784976554</v>
+        <v>0.10437178495684</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.30253127756509</v>
+        <v>-1.30253127876518</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.74234475141998</v>
+        <v>0.742344751455333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0386208576968557</v>
+        <v>0.0386208577010846</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-5.72683612356873</v>
+        <v>-5.72683612229899</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.22858971453345</v>
+        <v>1.2285897145194</v>
       </c>
       <c r="H10" t="n">
-        <v>0.112878769326398</v>
+        <v>0.112878769332676</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.24068710279387</v>
+        <v>2.24068710251919</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.960687058478811</v>
+        <v>0.96068705838165</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0721093839526125</v>
+        <v>0.0721093839531676</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.534325152229902</v>
+        <v>-0.534325153519166</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.14663509674885</v>
+        <v>1.1466350967662</v>
       </c>
       <c r="H12" t="n">
-        <v>0.103747332853404</v>
+        <v>0.103747332861981</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.51228921667194</v>
+        <v>1.51228921673706</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4166008829141</v>
+        <v>1.41660088287921</v>
       </c>
       <c r="H13" t="n">
-        <v>0.132589089425266</v>
+        <v>0.132589089430697</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.72086263310626</v>
+        <v>3.72086263259902</v>
       </c>
       <c r="L13" t="n">
         <v>0.03</v>
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.915402483684154</v>
+        <v>0.915402483670631</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0137974798971007</v>
+        <v>0.0137974798966685</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-5.86438553033952</v>
+        <v>-5.86438553141674</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.900668737858972</v>
+        <v>0.900668737800778</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0765048643211872</v>
+        <v>0.0765048643236415</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.2316332725522</v>
+        <v>-1.23163327319377</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.08546164445406</v>
+        <v>1.0854616444827</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0164432800365355</v>
+        <v>0.0164432800368264</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.41337794452499</v>
+        <v>5.41337794631377</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0810245016787</v>
+        <v>1.08102450167193</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0276618140437445</v>
+        <v>0.0276618140439398</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.04469397641184</v>
+        <v>3.04469397612631</v>
       </c>
       <c r="L17" t="n">
         <v>0.356</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.663928082244199</v>
+        <v>0.663928082139349</v>
       </c>
       <c r="H18" t="n">
-        <v>0.135440842488095</v>
+        <v>0.135440842417271</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.00775939124946</v>
+        <v>-2.00775939275641</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.11035843525329</v>
+        <v>1.11035843522296</v>
       </c>
       <c r="H19" t="n">
-        <v>0.164022119688661</v>
+        <v>0.164022119667154</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.708657568004375</v>
+        <v>0.708657567893016</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.847136864165157</v>
+        <v>0.847136864197583</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0676169499719751</v>
+        <v>0.0676169499760599</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.07838544456068</v>
+        <v>-2.07838544403512</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.95811797818843</v>
+        <v>1.95811797827485</v>
       </c>
       <c r="H22" t="n">
-        <v>0.281026041998921</v>
+        <v>0.281026042001463</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.68221216820307</v>
+        <v>4.68221216867486</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.25110120901795</v>
+        <v>1.25110120903108</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13970846148669</v>
+        <v>0.139708461478049</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.00615523062334</v>
+        <v>2.00615523086242</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.30849832014504</v>
+        <v>1.30849832015261</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13665196677563</v>
+        <v>0.136651966783791</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.57463719634452</v>
+        <v>2.57463719626107</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.45896228771617</v>
+        <v>1.45896228777569</v>
       </c>
       <c r="H26" t="n">
-        <v>0.162887545048089</v>
+        <v>0.162887545037813</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.38323684869576</v>
+        <v>3.38323684941258</v>
       </c>
       <c r="L26" t="n">
         <v>0.11</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.17293944673752</v>
+        <v>1.17293944679267</v>
       </c>
       <c r="H27" t="n">
-        <v>0.13903504743427</v>
+        <v>0.13903504743272</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1.34569685717675</v>
+        <v>1.34569685765167</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.23868939855163</v>
+        <v>1.23868939857273</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0810905767719536</v>
+        <v>0.0810905767724046</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.26975448198011</v>
+        <v>3.2697544822779</v>
       </c>
       <c r="L28" t="n">
         <v>0.165</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94929229619212</v>
+        <v>2.94929229678805</v>
       </c>
       <c r="H30" t="n">
-        <v>0.572937647387888</v>
+        <v>0.572937647301204</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5675378473208</v>
+        <v>5.56753785032824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.12675436084075</v>
+        <v>1.12675436088335</v>
       </c>
       <c r="H31" t="n">
-        <v>0.122266316137736</v>
+        <v>0.122266316127672</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1.09979822194658</v>
+        <v>1.09979822242711</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1557,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.54461265410112</v>
+        <v>1.54461265405093</v>
       </c>
       <c r="H32" t="n">
-        <v>0.129616232440292</v>
+        <v>0.129616232445161</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>5.18111139924434</v>
+        <v>5.18111139849417</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.19747036875532</v>
+        <v>2.19747036919199</v>
       </c>
       <c r="H34" t="n">
-        <v>0.378087164045551</v>
+        <v>0.378087163943076</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.57588533700682</v>
+        <v>4.57588534031132</v>
       </c>
       <c r="L34" t="n">
         <v>0.001</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.05636108980427</v>
+        <v>1.05636108988279</v>
       </c>
       <c r="H35" t="n">
-        <v>0.122081055126298</v>
+        <v>0.122081055123229</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.474441757250303</v>
+        <v>0.4744417579407</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1699,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.4622069360331</v>
+        <v>1.46220693600205</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0756678640047479</v>
+        <v>0.075667864007999</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>7.34209947195673</v>
+        <v>7.34209947107491</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.745083955087295</v>
+        <v>0.745083955084807</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0688704097008529</v>
+        <v>0.0688704097051538</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.18347451731029</v>
+        <v>-3.18347451713699</v>
       </c>
       <c r="L38" t="n">
         <v>0.223</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.937525628049081</v>
+        <v>0.937525628083325</v>
       </c>
       <c r="H39" t="n">
-        <v>0.059328383943552</v>
+        <v>0.0593283839462175</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.01942586572112</v>
+        <v>-1.01942586513537</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.946649590206828</v>
+        <v>0.94664959021748</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0854924515110234</v>
+        <v>0.0854924515178276</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.607086005915674</v>
+        <v>-0.607086005749599</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.763111554367323</v>
+        <v>0.763111554381337</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0695471095540686</v>
+        <v>0.0695471095600888</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.96644984879555</v>
+        <v>-2.96644984839174</v>
       </c>
       <c r="L41" t="n">
         <v>0.461</v>
